--- a/data/raw/CUT/cut_shapefiles_reviewed.xlsx
+++ b/data/raw/CUT/cut_shapefiles_reviewed.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d135da842735aabe/Documentos/GitHub/local-gov-indicators/data/raw/CUT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3131" documentId="11_F25DC773A252ABDACC1048F3099F60CE5BDE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{354C74BF-6AC4-4826-AF64-AFFF14F900F8}"/>
+  <xr:revisionPtr revIDLastSave="3137" documentId="11_F25DC773A252ABDACC1048F3099F60CE5BDE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{86B6C32F-3840-448C-A056-5C15FFE28ED4}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Codes" sheetId="1" r:id="rId1"/>
@@ -4268,8 +4268,8 @@
   <dimension ref="A1:V346"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A313" sqref="A313"/>
+      <pane xSplit="1" topLeftCell="G1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="L206" sqref="L206"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/data/raw/CUT/cut_shapefiles_reviewed.xlsx
+++ b/data/raw/CUT/cut_shapefiles_reviewed.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d135da842735aabe/Documentos/GitHub/local-gov-indicators/data/raw/CUT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3137" documentId="11_F25DC773A252ABDACC1048F3099F60CE5BDE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{86B6C32F-3840-448C-A056-5C15FFE28ED4}"/>
+  <xr:revisionPtr revIDLastSave="3142" documentId="11_F25DC773A252ABDACC1048F3099F60CE5BDE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E6899E50-9111-4C36-8AFA-762A8099F27B}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Codes" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Codes!$A$1:$C$346</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Codes!$A$1:$V$346</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -3895,7 +3895,7 @@
     <t>Estimaciones_tasa_de_pobreza_comunal_2011_(nueva_metodologia)</t>
   </si>
   <si>
-    <t>fre</t>
+    <t>San Miguel</t>
   </si>
 </sst>
 </file>
@@ -4269,7 +4269,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="G1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="L206" sqref="L206"/>
+      <selection pane="topRight" activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -27826,7 +27826,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C346" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:V346" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>